--- a/exercises/forelesning_okt17/flight.xlsx
+++ b/exercises/forelesning_okt17/flight.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +60,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,432 +376,422 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>0.2940877409995489</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>20.36264040419992</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>0.5881754819990979</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>39.87683745822483</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>0.8822632229986468</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>58.54259116207475</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>1.176350963998196</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>76.35990151574968</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>1.470438704997745</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>93.32876851924962</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>1.764526445997294</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>109.4491921725745</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>2.058614186996842</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>124.7211724757245</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>2.352701927996391</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>139.1447094286994</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>2.64678966899594</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>152.7198030314993</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>2.94087740999549</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>165.4464532841243</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>3.234965150995038</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>177.3246601865742</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>3.529052891994587</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>188.3544237388492</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>3.823140632994136</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>198.5357439409491</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>4.117228373993685</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>207.8686207928741</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>4.411316114993234</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>216.3530542946241</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>4.705403855992783</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>223.9890444461991</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>4.999491596992332</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>230.776591247599</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>5.293579337991881</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>236.715694698824</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>5.58766707899143</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>241.806354799874</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>5.881754819990979</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>246.048571550749</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>6.175842560990527</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>249.4423449514489</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>6.469930301990076</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>251.9876750019739</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>6.764018042989625</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>253.6845617023239</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>7.058105783989174</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>254.5330050524989</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:2">
+      <c r="A27">
         <v>7.352193524988723</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>254.5330050524989</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:2">
+      <c r="A28">
         <v>7.646281265988272</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>253.6845617023239</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:2">
+      <c r="A29">
         <v>7.940369006987821</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>251.9876750019739</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:2">
+      <c r="A30">
         <v>8.23445674798737</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>249.442344951449</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:2">
+      <c r="A31">
         <v>8.528544488986919</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>246.0485715507489</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:2">
+      <c r="A32">
         <v>8.822632229986468</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>241.8063547998739</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:2">
+      <c r="A33">
         <v>9.116719970986017</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>236.7156946988239</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:2">
+      <c r="A34">
         <v>9.410807711985566</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>230.7765912475991</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:2">
+      <c r="A35">
         <v>9.704895452985115</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>223.9890444461991</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:2">
+      <c r="A36">
         <v>9.998983193984664</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>216.3530542946241</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:2">
+      <c r="A37">
         <v>10.29307093498421</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>207.8686207928741</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:2">
+      <c r="A38">
         <v>10.58715867598376</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>198.5357439409491</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:2">
+      <c r="A39">
         <v>10.88124641698331</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>188.3544237388492</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:2">
+      <c r="A40">
         <v>11.17533415798286</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>177.3246601865742</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:2">
+      <c r="A41">
         <v>11.46942189898241</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>165.4464532841242</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:2">
+      <c r="A42">
         <v>11.76350963998196</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>152.7198030314994</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:2">
+      <c r="A43">
         <v>12.05759738098151</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>139.1447094286995</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:2">
+      <c r="A44">
         <v>12.35168512198105</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>124.7211724757245</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:2">
+      <c r="A45">
         <v>12.6457728629806</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>109.4491921725745</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:2">
+      <c r="A46">
         <v>12.93986060398015</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>93.32876851924971</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:2">
+      <c r="A47">
         <v>13.2339483449797</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>76.3599015157497</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:2">
+      <c r="A48">
         <v>13.52803608597925</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>58.54259116207481</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:2">
+      <c r="A49">
         <v>13.8221238269788</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>39.87683745822494</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:2">
+      <c r="A50">
         <v>14.11621156797835</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>20.36264040419985</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:2">
+      <c r="A51">
         <v>14.4102993089779</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>